--- a/accuracy_dane_10.xlsx
+++ b/accuracy_dane_10.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LocalData\vm01471\Downloads\Multi-SKU-Forecast-master (1)\Multi-SKU-Forecast-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\Multi-SKU-Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,13 +20,13 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="31">
   <si>
     <t>.model</t>
   </si>
@@ -106,22 +106,28 @@
     <t>Suavizamientos exponenciales</t>
   </si>
   <si>
-    <t>Etiquetas de fila</t>
+    <t>Row Labels</t>
   </si>
   <si>
-    <t>Suma de MAPE</t>
+    <t>(All)</t>
   </si>
   <si>
-    <t>Suma de RMSE</t>
+    <t>Min of MAE</t>
   </si>
   <si>
-    <t>Suma de MAE</t>
+    <t>Min of MAPE</t>
+  </si>
+  <si>
+    <t>Min of RMSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -599,62 +605,93 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="0.0000"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -672,7 +709,7 @@
   <cacheSource type="worksheet">
     <worksheetSource name="error"/>
   </cacheSource>
-  <cacheFields count="10">
+  <cacheFields count="11">
     <cacheField name=".model" numFmtId="0">
       <sharedItems count="5">
         <s v="Arima"/>
@@ -757,7 +794,58 @@
       </sharedItems>
     </cacheField>
     <cacheField name="MAE" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.51594297433155" maxValue="37.135811322775403"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.51594297433155" maxValue="37.135811322775403" count="50">
+        <n v="2.9140068307900999"/>
+        <n v="16.6875583710484"/>
+        <n v="6.0708268120182103"/>
+        <n v="10.8141597502783"/>
+        <n v="7.2637437420879198"/>
+        <n v="2.41182147858673"/>
+        <n v="1.51594297433155"/>
+        <n v="6.3114267143997296"/>
+        <n v="3.36420256176326"/>
+        <n v="9.0642203798339995"/>
+        <n v="6.1961131368071598"/>
+        <n v="37.135811322775403"/>
+        <n v="6.9697810147808203"/>
+        <n v="22.028310378340301"/>
+        <n v="25.0497587934851"/>
+        <n v="27.085148576705599"/>
+        <n v="3.3288874499913099"/>
+        <n v="8.2083348566485697"/>
+        <n v="3.78692375084721"/>
+        <n v="11.2516475951297"/>
+        <n v="14.8108053241849"/>
+        <n v="20.774571308550701"/>
+        <n v="18.0080256443383"/>
+        <n v="22.603935741131"/>
+        <n v="7.7137280117139202"/>
+        <n v="11.6609642048483"/>
+        <n v="5.4145598777209702"/>
+        <n v="15.8031109470231"/>
+        <n v="16.735323151925702"/>
+        <n v="17.357585848433001"/>
+        <n v="1.9147801368912101"/>
+        <n v="22.3541820432383"/>
+        <n v="4.3598519307721499"/>
+        <n v="12.8247000816348"/>
+        <n v="6.10752411347611"/>
+        <n v="3.7369042542993398"/>
+        <n v="3.0206940626160499"/>
+        <n v="9.3512937544499"/>
+        <n v="4.6491714479476496"/>
+        <n v="10.620715951878999"/>
+        <n v="2.2181955050625102"/>
+        <n v="18.1204198593108"/>
+        <n v="3.8704081201153002"/>
+        <n v="9.3673003708311704"/>
+        <n v="15.353053201304499"/>
+        <n v="1.8626986824002401"/>
+        <n v="1.71396556384805"/>
+        <n v="3.6523323433400199"/>
+        <n v="3.9584553853097102"/>
+        <n v="7.0304840188300197"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="MPE" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-16.808625940239398" maxValue="17.327374036475099"/>
@@ -822,6 +910,7 @@
     <cacheField name="ACF1" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.59950864584260999" maxValue="0.568279240306519"/>
     </cacheField>
+    <cacheField name="Field1" numFmtId="0" formula="'.model'" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -839,7 +928,7 @@
     <s v="Test"/>
     <n v="2.4576121305953702"/>
     <x v="0"/>
-    <n v="2.9140068307900999"/>
+    <x v="0"/>
     <n v="1.78771538401914"/>
     <x v="0"/>
     <n v="0.75033523444018402"/>
@@ -851,7 +940,7 @@
     <s v="Test"/>
     <n v="16.6875583710484"/>
     <x v="1"/>
-    <n v="16.6875583710484"/>
+    <x v="1"/>
     <n v="11.2908352674346"/>
     <x v="1"/>
     <n v="2.4958380778552902"/>
@@ -863,7 +952,7 @@
     <s v="Test"/>
     <n v="5.1760402285061504"/>
     <x v="2"/>
-    <n v="6.0708268120182103"/>
+    <x v="2"/>
     <n v="4.7073769313159097"/>
     <x v="2"/>
     <n v="0.82890957844014401"/>
@@ -875,7 +964,7 @@
     <s v="Test"/>
     <n v="-2.8682960827383401"/>
     <x v="3"/>
-    <n v="10.8141597502783"/>
+    <x v="3"/>
     <n v="-2.0992142043328901"/>
     <x v="3"/>
     <n v="0.971079383961718"/>
@@ -887,7 +976,7 @@
     <s v="Test"/>
     <n v="-7.06967800882558"/>
     <x v="4"/>
-    <n v="7.2637437420879198"/>
+    <x v="4"/>
     <n v="-7.3576549458074796"/>
     <x v="4"/>
     <n v="1.23101839579089"/>
@@ -899,7 +988,7 @@
     <s v="Test"/>
     <n v="0.38632475967361102"/>
     <x v="5"/>
-    <n v="2.41182147858673"/>
+    <x v="5"/>
     <n v="-0.21782218872697201"/>
     <x v="5"/>
     <n v="0.47899260826014001"/>
@@ -911,7 +1000,7 @@
     <s v="Test"/>
     <n v="0.190834536564749"/>
     <x v="6"/>
-    <n v="1.51594297433155"/>
+    <x v="6"/>
     <n v="0.15234250998186399"/>
     <x v="6"/>
     <n v="0.373799531314499"/>
@@ -923,7 +1012,7 @@
     <s v="Test"/>
     <n v="6.2435139423902504"/>
     <x v="7"/>
-    <n v="6.3114267143997296"/>
+    <x v="7"/>
     <n v="4.18144728724468"/>
     <x v="7"/>
     <n v="1.1099851402482701"/>
@@ -935,7 +1024,7 @@
     <s v="Test"/>
     <n v="-1.2310066009179199"/>
     <x v="8"/>
-    <n v="3.36420256176326"/>
+    <x v="8"/>
     <n v="-1.2441333192955399"/>
     <x v="8"/>
     <n v="0.48433585789236"/>
@@ -947,7 +1036,7 @@
     <s v="Test"/>
     <n v="6.8086476935021896"/>
     <x v="9"/>
-    <n v="9.0642203798339995"/>
+    <x v="9"/>
     <n v="4.9763597981464498"/>
     <x v="9"/>
     <n v="0.70799734132622105"/>
@@ -959,7 +1048,7 @@
     <s v="Test"/>
     <n v="4.7166150853573701"/>
     <x v="10"/>
-    <n v="6.1961131368071598"/>
+    <x v="10"/>
     <n v="3.2152053397700899"/>
     <x v="10"/>
     <n v="1.5954533647622"/>
@@ -971,7 +1060,7 @@
     <s v="Test"/>
     <n v="37.135811322775403"/>
     <x v="11"/>
-    <n v="37.135811322775403"/>
+    <x v="11"/>
     <n v="17.327374036475099"/>
     <x v="11"/>
     <n v="5.5541361947972803"/>
@@ -983,7 +1072,7 @@
     <s v="Test"/>
     <n v="2.6521283570806"/>
     <x v="12"/>
-    <n v="6.9697810147808203"/>
+    <x v="12"/>
     <n v="1.9558795649532199"/>
     <x v="12"/>
     <n v="0.95165262025675401"/>
@@ -995,7 +1084,7 @@
     <s v="Test"/>
     <n v="0.83245977636812896"/>
     <x v="13"/>
-    <n v="22.028310378340301"/>
+    <x v="13"/>
     <n v="-1.48524305429181"/>
     <x v="13"/>
     <n v="1.97807675916435"/>
@@ -1007,7 +1096,7 @@
     <s v="Test"/>
     <n v="20.459399276899301"/>
     <x v="14"/>
-    <n v="25.0497587934851"/>
+    <x v="14"/>
     <n v="11.107861701203101"/>
     <x v="14"/>
     <n v="4.2452920945199697"/>
@@ -1019,7 +1108,7 @@
     <s v="Test"/>
     <n v="15.2318199481939"/>
     <x v="15"/>
-    <n v="27.085148576705599"/>
+    <x v="15"/>
     <n v="2.68605154996354"/>
     <x v="15"/>
     <n v="5.3791651152687496"/>
@@ -1031,7 +1120,7 @@
     <s v="Test"/>
     <n v="-1.9334454775115899"/>
     <x v="16"/>
-    <n v="3.3288874499913099"/>
+    <x v="16"/>
     <n v="-1.9268282906869501"/>
     <x v="16"/>
     <n v="0.82083336225372105"/>
@@ -1043,7 +1132,7 @@
     <s v="Test"/>
     <n v="8.0313757770612106"/>
     <x v="17"/>
-    <n v="8.2083348566485697"/>
+    <x v="17"/>
     <n v="5.2756398304509498"/>
     <x v="17"/>
     <n v="1.44359272940214"/>
@@ -1055,7 +1144,7 @@
     <s v="Test"/>
     <n v="0.359352067573249"/>
     <x v="18"/>
-    <n v="3.78692375084721"/>
+    <x v="18"/>
     <n v="0.20134312771775201"/>
     <x v="18"/>
     <n v="0.54519397389621505"/>
@@ -1067,7 +1156,7 @@
     <s v="Test"/>
     <n v="5.4559146422505398"/>
     <x v="19"/>
-    <n v="11.2516475951297"/>
+    <x v="19"/>
     <n v="3.0698327121398599"/>
     <x v="19"/>
     <n v="0.87885513028946305"/>
@@ -1079,7 +1168,7 @@
     <s v="Test"/>
     <n v="14.8108053241849"/>
     <x v="20"/>
-    <n v="14.8108053241849"/>
+    <x v="20"/>
     <n v="11.0797138577257"/>
     <x v="20"/>
     <n v="3.8136729700654399"/>
@@ -1091,7 +1180,7 @@
     <s v="Test"/>
     <n v="20.555440137059598"/>
     <x v="21"/>
-    <n v="20.774571308550701"/>
+    <x v="21"/>
     <n v="11.3030436299484"/>
     <x v="21"/>
     <n v="3.1071032064796502"/>
@@ -1103,7 +1192,7 @@
     <s v="Test"/>
     <n v="-18.0080256443383"/>
     <x v="22"/>
-    <n v="18.0080256443383"/>
+    <x v="22"/>
     <n v="-16.808625940239398"/>
     <x v="22"/>
     <n v="2.4588125155929701"/>
@@ -1115,7 +1204,7 @@
     <s v="Test"/>
     <n v="22.423865510389199"/>
     <x v="23"/>
-    <n v="22.603935741131"/>
+    <x v="23"/>
     <n v="11.095221165813699"/>
     <x v="23"/>
     <n v="2.0297662048170402"/>
@@ -1127,7 +1216,7 @@
     <s v="Test"/>
     <n v="-5.4158801724329999"/>
     <x v="24"/>
-    <n v="7.7137280117139202"/>
+    <x v="24"/>
     <n v="-5.0555216900489901"/>
     <x v="24"/>
     <n v="1.3072791964736601"/>
@@ -1139,7 +1228,7 @@
     <s v="Test"/>
     <n v="6.98553613947515E-2"/>
     <x v="25"/>
-    <n v="11.6609642048483"/>
+    <x v="25"/>
     <n v="-3.5737342867557"/>
     <x v="25"/>
     <n v="2.3158910014274299"/>
@@ -1151,7 +1240,7 @@
     <s v="Test"/>
     <n v="-5.4145598777209702"/>
     <x v="26"/>
-    <n v="5.4145598777209702"/>
+    <x v="26"/>
     <n v="-4.99852404322864"/>
     <x v="26"/>
     <n v="1.3351161480588301"/>
@@ -1163,7 +1252,7 @@
     <s v="Test"/>
     <n v="15.8031109470231"/>
     <x v="27"/>
-    <n v="15.8031109470231"/>
+    <x v="27"/>
     <n v="10.7785601690648"/>
     <x v="27"/>
     <n v="2.77927941092458"/>
@@ -1175,7 +1264,7 @@
     <s v="Test"/>
     <n v="-16.735323151925702"/>
     <x v="28"/>
-    <n v="16.735323151925702"/>
+    <x v="28"/>
     <n v="-15.4771127394598"/>
     <x v="28"/>
     <n v="2.4093427631318201"/>
@@ -1187,7 +1276,7 @@
     <s v="Test"/>
     <n v="-13.9244567397672"/>
     <x v="29"/>
-    <n v="17.357585848433001"/>
+    <x v="29"/>
     <n v="-14.6384247928086"/>
     <x v="29"/>
     <n v="1.3557839634915401"/>
@@ -1199,7 +1288,7 @@
     <s v="Test"/>
     <n v="1.7321844081036899"/>
     <x v="30"/>
-    <n v="1.9147801368912101"/>
+    <x v="30"/>
     <n v="1.2765034301646501"/>
     <x v="30"/>
     <n v="0.493041741609825"/>
@@ -1211,7 +1300,7 @@
     <s v="Test"/>
     <n v="22.3541820432383"/>
     <x v="31"/>
-    <n v="22.3541820432383"/>
+    <x v="31"/>
     <n v="15.306440109501599"/>
     <x v="31"/>
     <n v="3.3433542224858099"/>
@@ -1223,7 +1312,7 @@
     <s v="Test"/>
     <n v="3.7602672184818502"/>
     <x v="32"/>
-    <n v="4.3598519307721499"/>
+    <x v="32"/>
     <n v="3.2581355199927202"/>
     <x v="32"/>
     <n v="0.59529338225287998"/>
@@ -1235,7 +1324,7 @@
     <s v="Test"/>
     <n v="8.2062538751558201"/>
     <x v="33"/>
-    <n v="12.8247000816348"/>
+    <x v="33"/>
     <n v="3.81270976668198"/>
     <x v="33"/>
     <n v="1.1516199263144"/>
@@ -1247,7 +1336,7 @@
     <s v="Test"/>
     <n v="-4.2940274048509099"/>
     <x v="34"/>
-    <n v="6.10752411347611"/>
+    <x v="34"/>
     <n v="-4.4452414092162797"/>
     <x v="34"/>
     <n v="1.03506880244985"/>
@@ -1259,7 +1348,7 @@
     <s v="Test"/>
     <n v="3.63396429294863"/>
     <x v="35"/>
-    <n v="3.7369042542993398"/>
+    <x v="35"/>
     <n v="2.78027753805087"/>
     <x v="35"/>
     <n v="0.74215671909270997"/>
@@ -1271,7 +1360,7 @@
     <s v="Test"/>
     <n v="-1.46997906739937"/>
     <x v="36"/>
-    <n v="3.0206940626160499"/>
+    <x v="36"/>
     <n v="-1.46362433254808"/>
     <x v="36"/>
     <n v="0.74483937982446902"/>
@@ -1283,7 +1372,7 @@
     <s v="Test"/>
     <n v="9.3512937544499"/>
     <x v="37"/>
-    <n v="9.3512937544499"/>
+    <x v="37"/>
     <n v="6.3262166674013702"/>
     <x v="37"/>
     <n v="1.6446039190875901"/>
@@ -1295,7 +1384,7 @@
     <s v="Test"/>
     <n v="-4.4338351589766303"/>
     <x v="38"/>
-    <n v="4.6491714479476496"/>
+    <x v="38"/>
     <n v="-4.19734798023162"/>
     <x v="38"/>
     <n v="0.669329625785133"/>
@@ -1307,7 +1396,7 @@
     <s v="Test"/>
     <n v="3.5499028446459699"/>
     <x v="39"/>
-    <n v="10.620715951878999"/>
+    <x v="39"/>
     <n v="1.42403441925014"/>
     <x v="39"/>
     <n v="0.82957368000898601"/>
@@ -1319,7 +1408,7 @@
     <s v="Test"/>
     <n v="1.0509443896547199"/>
     <x v="40"/>
-    <n v="2.2181955050625102"/>
+    <x v="40"/>
     <n v="0.72239035507951599"/>
     <x v="40"/>
     <n v="0.57116895771790799"/>
@@ -1331,7 +1420,7 @@
     <s v="Test"/>
     <n v="18.1204198593108"/>
     <x v="41"/>
-    <n v="18.1204198593108"/>
+    <x v="41"/>
     <n v="11.681931623188699"/>
     <x v="41"/>
     <n v="2.7101408645890301"/>
@@ -1343,7 +1432,7 @@
     <s v="Test"/>
     <n v="0.20996455733429201"/>
     <x v="42"/>
-    <n v="3.8704081201153002"/>
+    <x v="42"/>
     <n v="0.15064029866227299"/>
     <x v="42"/>
     <n v="0.52846481419711799"/>
@@ -1355,7 +1444,7 @@
     <s v="Test"/>
     <n v="-6.2576504536259803"/>
     <x v="43"/>
-    <n v="9.3673003708311704"/>
+    <x v="43"/>
     <n v="-3.7237504477543601"/>
     <x v="43"/>
     <n v="0.84115571468758499"/>
@@ -1367,7 +1456,7 @@
     <s v="Test"/>
     <n v="-15.353053201304499"/>
     <x v="44"/>
-    <n v="15.353053201304499"/>
+    <x v="44"/>
     <n v="-14.6524335231585"/>
     <x v="44"/>
     <n v="2.6019490215288701"/>
@@ -1379,7 +1468,7 @@
     <s v="Test"/>
     <n v="-0.43243953415920899"/>
     <x v="45"/>
-    <n v="1.8626986824002401"/>
+    <x v="45"/>
     <n v="-0.609134466305851"/>
     <x v="45"/>
     <n v="0.36993571381926499"/>
@@ -1391,7 +1480,7 @@
     <s v="Test"/>
     <n v="-1.6371983446759599"/>
     <x v="46"/>
-    <n v="1.71396556384805"/>
+    <x v="46"/>
     <n v="-1.5186941272710299"/>
     <x v="46"/>
     <n v="0.42262772103159002"/>
@@ -1403,7 +1492,7 @@
     <s v="Test"/>
     <n v="1.7093728944879201"/>
     <x v="47"/>
-    <n v="3.6523323433400199"/>
+    <x v="47"/>
     <n v="1.0702650554770801"/>
     <x v="47"/>
     <n v="0.64233252033271304"/>
@@ -1415,7 +1504,7 @@
     <s v="Test"/>
     <n v="-3.4197263889529799"/>
     <x v="48"/>
-    <n v="3.9584553853097102"/>
+    <x v="48"/>
     <n v="-3.23377429363113"/>
     <x v="48"/>
     <n v="0.56988895578503695"/>
@@ -1427,7 +1516,7 @@
     <s v="Test"/>
     <n v="3.2992910153900601"/>
     <x v="49"/>
-    <n v="7.0304840188300197"/>
+    <x v="49"/>
     <n v="1.92720169249244"/>
     <x v="49"/>
     <n v="0.549144193872667"/>
@@ -1437,10 +1526,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D63" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" showAll="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:D13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisPage" showAll="0">
       <items count="6">
         <item x="0"/>
         <item x="1"/>
@@ -1521,7 +1610,61 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="51">
+        <item x="6"/>
+        <item x="46"/>
+        <item x="45"/>
+        <item x="30"/>
+        <item x="40"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="36"/>
+        <item x="16"/>
+        <item x="8"/>
+        <item x="47"/>
+        <item x="35"/>
+        <item x="18"/>
+        <item x="42"/>
+        <item x="48"/>
+        <item x="32"/>
+        <item x="38"/>
+        <item x="26"/>
+        <item x="2"/>
+        <item x="34"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="49"/>
+        <item x="4"/>
+        <item x="24"/>
+        <item x="17"/>
+        <item x="9"/>
+        <item x="37"/>
+        <item x="43"/>
+        <item x="39"/>
+        <item x="3"/>
+        <item x="19"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="20"/>
+        <item x="44"/>
+        <item x="27"/>
+        <item x="1"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="22"/>
+        <item x="41"/>
+        <item x="21"/>
+        <item x="13"/>
+        <item x="31"/>
+        <item x="23"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0">
       <items count="51">
@@ -1580,191 +1723,41 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="1">
     <field x="1"/>
-    <field x="0"/>
   </rowFields>
-  <rowItems count="60">
+  <rowItems count="10">
     <i>
       <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
     </i>
     <i>
       <x v="1"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
     <i>
       <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
     </i>
     <i>
       <x v="3"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
     <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
       <x v="4"/>
     </i>
     <i>
       <x v="5"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
     <i>
       <x v="6"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
     </i>
     <i>
       <x v="7"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
     <i>
       <x v="8"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
     <i>
       <x v="9"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -1781,11 +1774,49 @@
       <x v="2"/>
     </i>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
   <dataFields count="3">
-    <dataField name="Suma de MAPE" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Suma de RMSE" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Suma de MAE" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Min of MAE" fld="5" subtotal="min" baseField="0" baseItem="0"/>
+    <dataField name="Min of MAPE" fld="7" subtotal="min" baseField="0" baseItem="0"/>
+    <dataField name="Min of RMSE" fld="4" subtotal="min" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="11">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1796,7 +1827,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2058,866 +2089,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D63"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="24" width="12" customWidth="1"/>
-    <col min="25" max="25" width="11" customWidth="1"/>
-    <col min="26" max="51" width="12" customWidth="1"/>
-    <col min="52" max="52" width="12.5703125" customWidth="1"/>
-    <col min="53" max="53" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="11" max="11" width="35.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="30.140625" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" customWidth="1"/>
+    <col min="16" max="16" width="28.7109375" customWidth="1"/>
+    <col min="17" max="17" width="40.140625" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" customWidth="1"/>
+    <col min="19" max="19" width="30.140625" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" customWidth="1"/>
+    <col min="21" max="21" width="28.7109375" customWidth="1"/>
+    <col min="22" max="22" width="27.5703125" customWidth="1"/>
+    <col min="23" max="23" width="6.7109375" customWidth="1"/>
+    <col min="24" max="24" width="30.140625" customWidth="1"/>
+    <col min="25" max="25" width="8.28515625" customWidth="1"/>
+    <col min="26" max="26" width="28.7109375" customWidth="1"/>
+    <col min="27" max="27" width="27.140625" customWidth="1"/>
+    <col min="28" max="28" width="6.7109375" customWidth="1"/>
+    <col min="29" max="29" width="30.140625" customWidth="1"/>
+    <col min="30" max="30" width="8.28515625" customWidth="1"/>
+    <col min="31" max="31" width="28.7109375" customWidth="1"/>
+    <col min="32" max="32" width="38" customWidth="1"/>
+    <col min="33" max="33" width="6.7109375" customWidth="1"/>
+    <col min="34" max="34" width="30.140625" customWidth="1"/>
+    <col min="35" max="35" width="8.28515625" customWidth="1"/>
+    <col min="36" max="36" width="28.7109375" customWidth="1"/>
+    <col min="37" max="37" width="32.140625" customWidth="1"/>
+    <col min="38" max="38" width="6.7109375" customWidth="1"/>
+    <col min="39" max="39" width="30.140625" customWidth="1"/>
+    <col min="40" max="40" width="8.28515625" customWidth="1"/>
+    <col min="41" max="41" width="28.7109375" customWidth="1"/>
+    <col min="42" max="42" width="37" customWidth="1"/>
+    <col min="43" max="43" width="6.7109375" customWidth="1"/>
+    <col min="44" max="44" width="30.140625" customWidth="1"/>
+    <col min="45" max="45" width="8.28515625" customWidth="1"/>
+    <col min="46" max="46" width="28.7109375" customWidth="1"/>
+    <col min="47" max="47" width="37.42578125" customWidth="1"/>
+    <col min="48" max="48" width="6.7109375" customWidth="1"/>
+    <col min="49" max="49" width="30.140625" customWidth="1"/>
+    <col min="50" max="50" width="8.28515625" customWidth="1"/>
+    <col min="51" max="51" width="28.7109375" customWidth="1"/>
+    <col min="52" max="52" width="11.28515625" customWidth="1"/>
+    <col min="53" max="53" width="12.5703125" customWidth="1"/>
+    <col min="54" max="54" width="12" customWidth="1"/>
+    <col min="55" max="55" width="12.5703125" customWidth="1"/>
+    <col min="56" max="56" width="12" customWidth="1"/>
+    <col min="57" max="57" width="12.5703125" customWidth="1"/>
+    <col min="58" max="58" width="12" customWidth="1"/>
+    <col min="59" max="59" width="12.5703125" customWidth="1"/>
+    <col min="60" max="60" width="12" customWidth="1"/>
+    <col min="61" max="61" width="12.5703125" customWidth="1"/>
+    <col min="62" max="62" width="12" customWidth="1"/>
+    <col min="63" max="63" width="12.5703125" customWidth="1"/>
+    <col min="64" max="64" width="12" customWidth="1"/>
+    <col min="65" max="65" width="12.5703125" customWidth="1"/>
+    <col min="66" max="66" width="12" customWidth="1"/>
+    <col min="67" max="67" width="12.5703125" customWidth="1"/>
+    <col min="68" max="68" width="12" customWidth="1"/>
+    <col min="69" max="69" width="12.5703125" customWidth="1"/>
+    <col min="70" max="70" width="12" customWidth="1"/>
+    <col min="71" max="71" width="12.5703125" customWidth="1"/>
+    <col min="72" max="72" width="12" customWidth="1"/>
+    <col min="73" max="73" width="12.5703125" customWidth="1"/>
+    <col min="74" max="74" width="12" customWidth="1"/>
+    <col min="75" max="75" width="12.5703125" customWidth="1"/>
+    <col min="76" max="76" width="12" customWidth="1"/>
+    <col min="77" max="77" width="12.5703125" customWidth="1"/>
+    <col min="78" max="78" width="12" customWidth="1"/>
+    <col min="79" max="79" width="12.5703125" customWidth="1"/>
+    <col min="80" max="80" width="12" customWidth="1"/>
+    <col min="81" max="81" width="12.5703125" customWidth="1"/>
+    <col min="82" max="82" width="12" customWidth="1"/>
+    <col min="83" max="83" width="12.5703125" customWidth="1"/>
+    <col min="84" max="84" width="12" customWidth="1"/>
+    <col min="85" max="85" width="12.5703125" customWidth="1"/>
+    <col min="86" max="86" width="12" customWidth="1"/>
+    <col min="87" max="87" width="12.5703125" customWidth="1"/>
+    <col min="88" max="88" width="12" customWidth="1"/>
+    <col min="89" max="89" width="12.5703125" customWidth="1"/>
+    <col min="90" max="90" width="12" customWidth="1"/>
+    <col min="91" max="91" width="12.5703125" customWidth="1"/>
+    <col min="92" max="92" width="12" customWidth="1"/>
+    <col min="93" max="93" width="12.5703125" customWidth="1"/>
+    <col min="94" max="94" width="12" customWidth="1"/>
+    <col min="95" max="95" width="12.5703125" customWidth="1"/>
+    <col min="96" max="96" width="12" customWidth="1"/>
+    <col min="97" max="97" width="12.5703125" customWidth="1"/>
+    <col min="98" max="98" width="12" customWidth="1"/>
+    <col min="99" max="99" width="12.5703125" customWidth="1"/>
+    <col min="100" max="100" width="12" customWidth="1"/>
+    <col min="101" max="101" width="12.5703125" customWidth="1"/>
+    <col min="102" max="102" width="16.7109375" customWidth="1"/>
+    <col min="103" max="103" width="17.7109375" customWidth="1"/>
+    <col min="104" max="104" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="108" max="109" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="111" max="112" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="114" max="115" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="120" max="121" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="126" max="127" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="129" max="130" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="132" max="133" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="135" max="136" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="138" max="139" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="141" max="142" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="144" max="145" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="147" max="148" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="150" max="151" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="159" max="161" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="167" max="169" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="171" max="173" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="175" max="177" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="179" max="181" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="183" max="185" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="187" max="189" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="192" max="193" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="195" max="197" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="199" max="201" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="3">
+        <v>1.9147801368912101</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.42065149439293</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.5085367438418902</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
+      <c r="A5" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="3">
-        <v>2.15508620936706</v>
+        <v>16.6875583710484</v>
       </c>
       <c r="C5" s="3">
-        <v>3.4735572454819499</v>
+        <v>11.2908352674346</v>
       </c>
       <c r="D5" s="3">
-        <v>2.9140068307900999</v>
+        <v>19.664363762265001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
+      <c r="A6" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="3">
-        <v>4.40389929067313</v>
+        <v>3.8704081201153002</v>
       </c>
       <c r="C6" s="3">
-        <v>9.2206761246065394</v>
+        <v>3.5078880540082502</v>
       </c>
       <c r="D6" s="3">
-        <v>6.1961131368071598</v>
+        <v>4.5335550429836102</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>23</v>
+      <c r="A7" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="3">
-        <v>11.0797138577257</v>
+        <v>9.3673003708311704</v>
       </c>
       <c r="C7" s="3">
-        <v>15.2448818466759</v>
+        <v>5.3582094834026197</v>
       </c>
       <c r="D7" s="3">
-        <v>14.8108053241849</v>
+        <v>11.4993332840258</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
+      <c r="A8" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="3">
-        <v>1.42065149439293</v>
+        <v>6.10752411347611</v>
       </c>
       <c r="C8" s="3">
-        <v>2.5085367438418902</v>
+        <v>6.1605090590298897</v>
       </c>
       <c r="D8" s="3">
-        <v>1.9147801368912101</v>
+        <v>7.8757140301225803</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>25</v>
+      <c r="A9" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="3">
-        <v>1.6487175766214599</v>
+        <v>1.8626986824002401</v>
       </c>
       <c r="C9" s="3">
-        <v>3.0319100513794699</v>
+        <v>1.5603304046895901</v>
       </c>
       <c r="D9" s="3">
-        <v>2.2181955050625102</v>
+        <v>2.4890859068887798</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.51594297433155</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.38612867239052</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.75615163723544</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
+      <c r="A11" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="3">
-        <v>11.2908352674346</v>
+        <v>3.6523323433400199</v>
       </c>
       <c r="C11" s="3">
-        <v>19.664363762265001</v>
+        <v>2.4761319909498498</v>
       </c>
       <c r="D11" s="3">
-        <v>16.6875583710484</v>
+        <v>4.4509285556715001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>22</v>
+      <c r="A12" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="3">
-        <v>17.327374036475099</v>
+        <v>3.36420256176326</v>
       </c>
       <c r="C12" s="3">
-        <v>78.845148683500099</v>
+        <v>3.1276783984228</v>
       </c>
       <c r="D12" s="3">
-        <v>37.135811322775403</v>
+        <v>3.8516471802404699</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>23</v>
+      <c r="A13" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B13" s="3">
-        <v>11.4958925816481</v>
+        <v>7.0304840188300197</v>
       </c>
       <c r="C13" s="3">
-        <v>33.652991926022104</v>
+        <v>5.7363352104833503</v>
       </c>
       <c r="D13" s="3">
-        <v>20.774571308550701</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="3">
-        <v>15.306440109501599</v>
-      </c>
-      <c r="C14" s="3">
-        <v>24.9283326137157</v>
-      </c>
-      <c r="D14" s="3">
-        <v>22.3541820432383</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="3">
-        <v>11.681931623188699</v>
-      </c>
-      <c r="C15" s="3">
-        <v>22.100553370317002</v>
-      </c>
-      <c r="D15" s="3">
-        <v>18.1204198593108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="3">
-        <v>5.4786238424390303</v>
-      </c>
-      <c r="C17" s="3">
-        <v>7.6510283068396898</v>
-      </c>
-      <c r="D17" s="3">
-        <v>6.0708268120182103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="3">
-        <v>6.2770799470808996</v>
-      </c>
-      <c r="C18" s="3">
-        <v>8.1086451740062397</v>
-      </c>
-      <c r="D18" s="3">
-        <v>6.9697810147808203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="3">
-        <v>16.808625940239398</v>
-      </c>
-      <c r="C19" s="3">
-        <v>19.1798157935151</v>
-      </c>
-      <c r="D19" s="3">
-        <v>18.0080256443383</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="3">
-        <v>3.8620124661489501</v>
-      </c>
-      <c r="C20" s="3">
-        <v>5.58464061397531</v>
-      </c>
-      <c r="D20" s="3">
-        <v>4.3598519307721499</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="3">
-        <v>3.5078880540082502</v>
-      </c>
-      <c r="C21" s="3">
-        <v>4.5335550429836102</v>
-      </c>
-      <c r="D21" s="3">
-        <v>3.8704081201153002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="3">
-        <v>6.2406165672155396</v>
-      </c>
-      <c r="C23" s="3">
-        <v>12.5859262172521</v>
-      </c>
-      <c r="D23" s="3">
-        <v>10.8141597502783</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3">
-        <v>11.791729053984101</v>
-      </c>
-      <c r="C24" s="3">
-        <v>26.296181960207399</v>
-      </c>
-      <c r="D24" s="3">
-        <v>22.028310378340301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3">
-        <v>11.2124605647353</v>
-      </c>
-      <c r="C25" s="3">
-        <v>29.054332521563801</v>
-      </c>
-      <c r="D25" s="3">
-        <v>22.603935741131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3">
-        <v>6.70302867976734</v>
-      </c>
-      <c r="C26" s="3">
-        <v>17.0957382625854</v>
-      </c>
-      <c r="D26" s="3">
-        <v>12.8247000816348</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3">
-        <v>5.3582094834026197</v>
-      </c>
-      <c r="C27" s="3">
-        <v>11.4993332840258</v>
-      </c>
-      <c r="D27" s="3">
-        <v>9.3673003708311704</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="3">
-        <v>7.52567918492052</v>
-      </c>
-      <c r="C29" s="3">
-        <v>10.754849519528999</v>
-      </c>
-      <c r="D29" s="3">
-        <v>7.2637437420879198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="3">
-        <v>17.361900248453601</v>
-      </c>
-      <c r="C30" s="3">
-        <v>47.629523845172301</v>
-      </c>
-      <c r="D30" s="3">
-        <v>25.0497587934851</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="3">
-        <v>7.1208347007755304</v>
-      </c>
-      <c r="C31" s="3">
-        <v>10.430008485400901</v>
-      </c>
-      <c r="D31" s="3">
-        <v>7.7137280117139202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="3">
-        <v>6.1605090590298897</v>
-      </c>
-      <c r="C32" s="3">
-        <v>7.8757140301225803</v>
-      </c>
-      <c r="D32" s="3">
-        <v>6.10752411347611</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="3">
-        <v>14.6524335231585</v>
-      </c>
-      <c r="C33" s="3">
-        <v>18.346871312375502</v>
-      </c>
-      <c r="D33" s="3">
-        <v>15.353053201304499</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1.7544107756312199</v>
-      </c>
-      <c r="C35" s="3">
-        <v>3.3261439856214801</v>
-      </c>
-      <c r="D35" s="3">
-        <v>2.41182147858673</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="3">
-        <v>15.698433668025601</v>
-      </c>
-      <c r="C36" s="3">
-        <v>58.538247899500902</v>
-      </c>
-      <c r="D36" s="3">
-        <v>27.085148576705599</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="3">
-        <v>8.3834924982895096</v>
-      </c>
-      <c r="C37" s="3">
-        <v>18.505292181724499</v>
-      </c>
-      <c r="D37" s="3">
-        <v>11.6609642048483</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="3">
-        <v>2.8758121339497298</v>
-      </c>
-      <c r="C38" s="3">
-        <v>4.9784685217402496</v>
-      </c>
-      <c r="D38" s="3">
-        <v>3.7369042542993398</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="3">
-        <v>1.5603304046895901</v>
-      </c>
-      <c r="C39" s="3">
-        <v>2.4890859068887798</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1.8626986824002401</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="3">
-        <v>1.38612867239052</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1.75615163723544</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1.51594297433155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="3">
-        <v>3.1286176050338099</v>
-      </c>
-      <c r="C42" s="3">
-        <v>4.5745300793643402</v>
-      </c>
-      <c r="D42" s="3">
-        <v>3.3288874499913099</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="3">
-        <v>4.99852404322864</v>
-      </c>
-      <c r="C43" s="3">
-        <v>5.6536133403356601</v>
-      </c>
-      <c r="D43" s="3">
-        <v>5.4145598777209702</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="3">
-        <v>2.8303604550525798</v>
-      </c>
-      <c r="C44" s="3">
-        <v>3.63367921621612</v>
-      </c>
-      <c r="D44" s="3">
-        <v>3.0206940626160499</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="3">
-        <v>1.5874010671663299</v>
-      </c>
-      <c r="C45" s="3">
-        <v>2.1677134791231301</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1.71396556384805</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="3">
-        <v>4.2306791150600196</v>
-      </c>
-      <c r="C47" s="3">
-        <v>7.8272919877794802</v>
-      </c>
-      <c r="D47" s="3">
-        <v>6.3114267143997296</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="3">
-        <v>5.4050031145074096</v>
-      </c>
-      <c r="C48" s="3">
-        <v>10.9994976217077</v>
-      </c>
-      <c r="D48" s="3">
-        <v>8.2083348566485697</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" s="3">
-        <v>10.7785601690648</v>
-      </c>
-      <c r="C49" s="3">
-        <v>16.538609549827601</v>
-      </c>
-      <c r="D49" s="3">
-        <v>15.8031109470231</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" s="3">
-        <v>6.3262166674013702</v>
-      </c>
-      <c r="C50" s="3">
-        <v>10.1898083588635</v>
-      </c>
-      <c r="D50" s="3">
-        <v>9.3512937544499</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="3">
-        <v>2.4761319909498498</v>
-      </c>
-      <c r="C51" s="3">
-        <v>4.4509285556715001</v>
-      </c>
-      <c r="D51" s="3">
-        <v>3.6523323433400199</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="3">
-        <v>3.1276783984228</v>
-      </c>
-      <c r="C53" s="3">
-        <v>3.8516471802404699</v>
-      </c>
-      <c r="D53" s="3">
-        <v>3.36420256176326</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" s="3">
-        <v>3.4806816129029299</v>
-      </c>
-      <c r="C54" s="3">
-        <v>4.0808856831627596</v>
-      </c>
-      <c r="D54" s="3">
-        <v>3.78692375084721</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" s="3">
-        <v>15.4771127394598</v>
-      </c>
-      <c r="C55" s="3">
-        <v>17.013984969938299</v>
-      </c>
-      <c r="D55" s="3">
-        <v>16.735323151925702</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="3">
-        <v>4.38606903071235</v>
-      </c>
-      <c r="C56" s="3">
-        <v>6.0352245791317003</v>
-      </c>
-      <c r="D56" s="3">
-        <v>4.6491714479476496</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" s="3">
-        <v>3.7071332780817601</v>
-      </c>
-      <c r="C57" s="3">
-        <v>4.6577276275471</v>
-      </c>
-      <c r="D57" s="3">
-        <v>3.9584553853097102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="3">
-        <v>7.4373605286701503</v>
-      </c>
-      <c r="C59" s="3">
-        <v>14.1938721521632</v>
-      </c>
-      <c r="D59" s="3">
-        <v>9.0642203798339995</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B60" s="3">
-        <v>9.2407287358446908</v>
-      </c>
-      <c r="C60" s="3">
-        <v>18.028899221233999</v>
-      </c>
-      <c r="D60" s="3">
-        <v>11.2516475951297</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" s="3">
-        <v>16.977998560896701</v>
-      </c>
-      <c r="C61" s="3">
-        <v>18.108001605434701</v>
-      </c>
-      <c r="D61" s="3">
-        <v>17.357585848433001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="3">
-        <v>8.9122485835762006</v>
-      </c>
-      <c r="C62" s="3">
-        <v>16.303274285011501</v>
-      </c>
-      <c r="D62" s="3">
-        <v>10.620715951878999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" s="3">
-        <v>5.7363352104833503</v>
-      </c>
-      <c r="C63" s="3">
         <v>11.000932895546301</v>
-      </c>
-      <c r="D63" s="3">
-        <v>7.0304840188300197</v>
       </c>
     </row>
   </sheetData>
@@ -2929,11 +2440,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
